--- a/项目文档/测试用例/Xmind导出测试用例-xt.xlsx
+++ b/项目文档/测试用例/Xmind导出测试用例-xt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dk\我的坚果云\我的坚果云\工作\南京烽火\Citta\测试样例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\C2\项目文档\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11DBB5A-7455-4558-9A36-42C7A9E1B4ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4541D803-B4DE-4300-9FA2-3145989FB4D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试点总览" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t>测试功能点</t>
   </si>
@@ -354,6 +354,38 @@
   </si>
   <si>
     <t>导出为xmind文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未保存的情况下导出xmind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未保存的情况下导出xmind,不会报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开业务视图，点击导出为xmind文档看与预期是否一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法正常导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在插入图片之后，删除原始文件，导出xmind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在插入图片之后，删除原始文件，导出xmind,正常导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -742,17 +774,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -768,7 +800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
   </sheetData>
@@ -781,25 +813,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="3" width="40.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="48" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="55" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -828,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -851,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -877,7 +909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -900,7 +932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -923,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -946,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -969,7 +1001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -992,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1015,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1038,7 +1070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1061,7 +1093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1084,7 +1116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1107,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1130,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1153,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1176,7 +1208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1199,7 +1231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1222,7 +1254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1248,7 +1280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1271,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1294,7 +1326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1317,7 +1349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1340,7 +1372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1363,7 +1395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1386,7 +1418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1409,7 +1441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1432,7 +1464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1455,115 +1487,149 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
